--- a/BTL/Project_E-Commerce Growth Analysis(TikTokShop)/Data/Doanhthu_chuaCH_2thang.xlsx
+++ b/BTL/Project_E-Commerce Growth Analysis(TikTokShop)/Data/Doanhthu_chuaCH_2thang.xlsx
@@ -29,7 +29,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t xml:space="preserve">Ngày: </t>
+    <t>Ngày</t>
   </si>
   <si>
     <t>Doanh thu Affilicate (nghìn đồng)</t>
@@ -51,11 +51,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -681,12 +682,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1036,12 +1040,12 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="23.4444444444444" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="21.7777777777778" customWidth="1"/>
     <col min="4" max="4" width="32.6666666666667" customWidth="1"/>
@@ -1050,27 +1054,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>45514</v>
       </c>
       <c r="B2">
@@ -1090,7 +1094,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>45515</v>
       </c>
       <c r="B3">
@@ -1110,7 +1114,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>45516</v>
       </c>
       <c r="B4">
@@ -1130,7 +1134,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>45517</v>
       </c>
       <c r="B5">
@@ -1150,7 +1154,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>45518</v>
       </c>
       <c r="B6">
@@ -1170,7 +1174,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>45519</v>
       </c>
       <c r="B7">
@@ -1190,7 +1194,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>45520</v>
       </c>
       <c r="B8">
@@ -1210,7 +1214,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>45521</v>
       </c>
       <c r="B9">
@@ -1230,7 +1234,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>45522</v>
       </c>
       <c r="B10">
@@ -1250,7 +1254,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>45523</v>
       </c>
       <c r="B11">
@@ -1270,7 +1274,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>45524</v>
       </c>
       <c r="B12">
@@ -1290,7 +1294,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>45525</v>
       </c>
       <c r="B13">
@@ -1310,7 +1314,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>45526</v>
       </c>
       <c r="B14">
@@ -1330,7 +1334,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>45527</v>
       </c>
       <c r="B15">
@@ -1350,7 +1354,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>45528</v>
       </c>
       <c r="B16">
@@ -1370,7 +1374,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>45529</v>
       </c>
       <c r="B17">
@@ -1390,7 +1394,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>45530</v>
       </c>
       <c r="B18">
@@ -1410,7 +1414,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>45531</v>
       </c>
       <c r="B19">
@@ -1430,7 +1434,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>45532</v>
       </c>
       <c r="B20">
@@ -1450,7 +1454,7 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>45533</v>
       </c>
       <c r="B21">
@@ -1470,7 +1474,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>45534</v>
       </c>
       <c r="B22">
@@ -1490,7 +1494,7 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>45535</v>
       </c>
       <c r="B23">
@@ -1510,7 +1514,7 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>45536</v>
       </c>
       <c r="B24">
@@ -1530,7 +1534,7 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>45537</v>
       </c>
       <c r="B25">
@@ -1550,7 +1554,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>45538</v>
       </c>
       <c r="B26">
@@ -1570,7 +1574,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>45539</v>
       </c>
       <c r="B27">
@@ -1590,7 +1594,7 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>45540</v>
       </c>
       <c r="B28">
@@ -1610,7 +1614,7 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>45541</v>
       </c>
       <c r="B29">
@@ -1630,7 +1634,7 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>45542</v>
       </c>
       <c r="B30">
@@ -1650,7 +1654,7 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>45543</v>
       </c>
       <c r="B31">
@@ -1670,7 +1674,7 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>45544</v>
       </c>
       <c r="B32">
@@ -1690,7 +1694,7 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>45545</v>
       </c>
       <c r="B33">
@@ -1710,7 +1714,7 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>45546</v>
       </c>
       <c r="B34">
@@ -1730,7 +1734,7 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>45547</v>
       </c>
       <c r="B35">
@@ -1750,7 +1754,7 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>45548</v>
       </c>
       <c r="B36">
@@ -1770,7 +1774,7 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>45549</v>
       </c>
       <c r="B37">
@@ -1790,7 +1794,7 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>45550</v>
       </c>
       <c r="B38">
@@ -1810,7 +1814,7 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>45551</v>
       </c>
       <c r="B39">
@@ -1830,7 +1834,7 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>45552</v>
       </c>
       <c r="B40">
@@ -1850,7 +1854,7 @@
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>45553</v>
       </c>
       <c r="B41">
@@ -1870,7 +1874,7 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>45554</v>
       </c>
       <c r="B42">
@@ -1890,7 +1894,7 @@
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>45555</v>
       </c>
       <c r="B43">
@@ -1910,7 +1914,7 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>45556</v>
       </c>
       <c r="B44">
@@ -1930,7 +1934,7 @@
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <v>45557</v>
       </c>
       <c r="B45">
@@ -1950,7 +1954,7 @@
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <v>45558</v>
       </c>
       <c r="B46">
@@ -1970,7 +1974,7 @@
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="2">
+      <c r="A47" s="1">
         <v>45559</v>
       </c>
       <c r="B47">
@@ -1990,7 +1994,7 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="2">
+      <c r="A48" s="1">
         <v>45560</v>
       </c>
       <c r="B48">
@@ -2010,7 +2014,7 @@
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="2">
+      <c r="A49" s="1">
         <v>45561</v>
       </c>
       <c r="B49">
@@ -2030,7 +2034,7 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="2">
+      <c r="A50" s="1">
         <v>45562</v>
       </c>
       <c r="B50">
@@ -2050,7 +2054,7 @@
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="2">
+      <c r="A51" s="1">
         <v>45563</v>
       </c>
       <c r="B51">
@@ -2070,7 +2074,7 @@
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="2">
+      <c r="A52" s="1">
         <v>45564</v>
       </c>
       <c r="B52">
@@ -2090,7 +2094,7 @@
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="2">
+      <c r="A53" s="1">
         <v>45565</v>
       </c>
       <c r="B53">
@@ -2110,7 +2114,7 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="2">
+      <c r="A54" s="1">
         <v>45566</v>
       </c>
       <c r="B54">
@@ -2130,7 +2134,7 @@
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="2">
+      <c r="A55" s="1">
         <v>45567</v>
       </c>
       <c r="B55">
@@ -2150,7 +2154,7 @@
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="2">
+      <c r="A56" s="1">
         <v>45568</v>
       </c>
       <c r="B56">
@@ -2170,7 +2174,7 @@
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="2">
+      <c r="A57" s="1">
         <v>45569</v>
       </c>
       <c r="B57">
@@ -2190,7 +2194,7 @@
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="2">
+      <c r="A58" s="1">
         <v>45570</v>
       </c>
       <c r="B58">
@@ -2210,7 +2214,7 @@
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="2">
+      <c r="A59" s="1">
         <v>45571</v>
       </c>
       <c r="B59">
@@ -2230,7 +2234,7 @@
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="2">
+      <c r="A60" s="1">
         <v>45572</v>
       </c>
       <c r="B60">
